--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H2">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I2">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J2">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>1461.348675220871</v>
+        <v>1304.956537953907</v>
       </c>
       <c r="R2">
-        <v>13152.13807698784</v>
+        <v>11744.60884158516</v>
       </c>
       <c r="S2">
-        <v>0.0007426323419130454</v>
+        <v>0.001057412233316649</v>
       </c>
       <c r="T2">
-        <v>0.0007426323419130457</v>
+        <v>0.001057412233316649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H3">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I3">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J3">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
-        <v>6046.041975811478</v>
+        <v>6279.005416994773</v>
       </c>
       <c r="R3">
-        <v>54414.3777823033</v>
+        <v>56511.04875295296</v>
       </c>
       <c r="S3">
-        <v>0.003072494872671527</v>
+        <v>0.005087906721707463</v>
       </c>
       <c r="T3">
-        <v>0.003072494872671528</v>
+        <v>0.005087906721707463</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H4">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I4">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J4">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>15955.28517214152</v>
+        <v>11332.98879887993</v>
       </c>
       <c r="R4">
-        <v>143597.5665492737</v>
+        <v>101996.8991899194</v>
       </c>
       <c r="S4">
-        <v>0.008108202370996149</v>
+        <v>0.009183172502255</v>
       </c>
       <c r="T4">
-        <v>0.008108202370996152</v>
+        <v>0.009183172502255001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H5">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I5">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J5">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>4281.000396765097</v>
+        <v>2791.45303155376</v>
       </c>
       <c r="R5">
-        <v>38529.00357088588</v>
+        <v>25123.07728398384</v>
       </c>
       <c r="S5">
-        <v>0.002175531003851514</v>
+        <v>0.002261927120516907</v>
       </c>
       <c r="T5">
-        <v>0.002175531003851515</v>
+        <v>0.002261927120516907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H6">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I6">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J6">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>18415.57348586516</v>
+        <v>7608.693468863587</v>
       </c>
       <c r="R6">
-        <v>165740.1613727865</v>
+        <v>68478.24121977229</v>
       </c>
       <c r="S6">
-        <v>0.009358478710368569</v>
+        <v>0.006165359013525269</v>
       </c>
       <c r="T6">
-        <v>0.009358478710368573</v>
+        <v>0.00616535901352527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I7">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J7">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>58621.97105751638</v>
+        <v>50406.0788423129</v>
       </c>
       <c r="R7">
-        <v>527597.7395176474</v>
+        <v>453654.709580816</v>
       </c>
       <c r="S7">
-        <v>0.02979068061728819</v>
+        <v>0.04084427553806227</v>
       </c>
       <c r="T7">
-        <v>0.0297906806172882</v>
+        <v>0.04084427553806227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I8">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J8">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
         <v>242536.8454006915</v>
@@ -948,10 +948,10 @@
         <v>2182831.608606223</v>
       </c>
       <c r="S8">
-        <v>0.1232530665365641</v>
+        <v>0.1965287117981999</v>
       </c>
       <c r="T8">
-        <v>0.1232530665365641</v>
+        <v>0.1965287117981999</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I9">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J9">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>640045.925681859</v>
+        <v>437755.2127606324</v>
       </c>
       <c r="R9">
-        <v>5760413.331136731</v>
+        <v>3939796.914845692</v>
       </c>
       <c r="S9">
-        <v>0.3252603658392352</v>
+        <v>0.3547150450673287</v>
       </c>
       <c r="T9">
-        <v>0.3252603658392352</v>
+        <v>0.3547150450673288</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I10">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J10">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>171732.2399587142</v>
+        <v>107824.4351445842</v>
       </c>
       <c r="R10">
-        <v>1545590.159628428</v>
+        <v>970419.9163012577</v>
       </c>
       <c r="S10">
-        <v>0.0872713799964525</v>
+        <v>0.08737063147797201</v>
       </c>
       <c r="T10">
-        <v>0.0872713799964525</v>
+        <v>0.08737063147797201</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I11">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J11">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>738740.3391136531</v>
+        <v>293898.219384281</v>
       </c>
       <c r="R11">
-        <v>6648663.052022877</v>
+        <v>2645083.974458529</v>
       </c>
       <c r="S11">
-        <v>0.3754151746288006</v>
+        <v>0.2381470673453924</v>
       </c>
       <c r="T11">
-        <v>0.3754151746288006</v>
+        <v>0.2381470673453924</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H12">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I12">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J12">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N12">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O12">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P12">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q12">
-        <v>4.917662040702332</v>
+        <v>26.450343341101</v>
       </c>
       <c r="R12">
-        <v>44.25895836632099</v>
+        <v>238.053090069909</v>
       </c>
       <c r="S12">
-        <v>2.499071535731668E-06</v>
+        <v>2.143283382307839E-05</v>
       </c>
       <c r="T12">
-        <v>2.499071535731668E-06</v>
+        <v>2.143283382307839E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H13">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I13">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J13">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q13">
-        <v>20.34585696425066</v>
+        <v>127.270023399056</v>
       </c>
       <c r="R13">
-        <v>183.112712678256</v>
+        <v>1145.430210591504</v>
       </c>
       <c r="S13">
-        <v>1.03394156793591E-05</v>
+        <v>0.0001031274803126137</v>
       </c>
       <c r="T13">
-        <v>1.03394156793591E-05</v>
+        <v>0.0001031274803126137</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H14">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I14">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J14">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N14">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q14">
-        <v>53.69197753421999</v>
+        <v>229.709906876465</v>
       </c>
       <c r="R14">
-        <v>483.2277978079799</v>
+        <v>2067.389161888185</v>
       </c>
       <c r="S14">
-        <v>2.728534243352558E-05</v>
+        <v>0.0001861349850210735</v>
       </c>
       <c r="T14">
-        <v>2.728534243352559E-05</v>
+        <v>0.0001861349850210735</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H15">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I15">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J15">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N15">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q15">
-        <v>14.40622180344566</v>
+        <v>56.58034498292399</v>
       </c>
       <c r="R15">
-        <v>129.655996231011</v>
+        <v>509.2231048463159</v>
       </c>
       <c r="S15">
-        <v>7.320994925728207E-06</v>
+        <v>4.584731154650407E-05</v>
       </c>
       <c r="T15">
-        <v>7.320994925728208E-06</v>
+        <v>4.584731154650408E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H16">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I16">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J16">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N16">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q16">
-        <v>61.97122440714966</v>
+        <v>154.221653193283</v>
       </c>
       <c r="R16">
-        <v>557.7410196643469</v>
+        <v>1387.994878739547</v>
       </c>
       <c r="S16">
-        <v>3.149271374659755E-05</v>
+        <v>0.0001249665088345304</v>
       </c>
       <c r="T16">
-        <v>3.149271374659755E-05</v>
+        <v>0.0001249665088345305</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H17">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I17">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J17">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N17">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O17">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P17">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q17">
-        <v>2204.315130833739</v>
+        <v>3167.187478827389</v>
       </c>
       <c r="R17">
-        <v>19838.83617750365</v>
+        <v>28504.6873094465</v>
       </c>
       <c r="S17">
-        <v>0.001120195156489948</v>
+        <v>0.002566386456494914</v>
       </c>
       <c r="T17">
-        <v>0.001120195156489948</v>
+        <v>0.002566386456494915</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H18">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I18">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J18">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q18">
-        <v>9119.919178031096</v>
+        <v>15239.42503661959</v>
       </c>
       <c r="R18">
-        <v>82079.27260227986</v>
+        <v>137154.8253295764</v>
       </c>
       <c r="S18">
-        <v>0.004634586565191423</v>
+        <v>0.01234857559907698</v>
       </c>
       <c r="T18">
-        <v>0.004634586565191423</v>
+        <v>0.01234857559907698</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H19">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I19">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J19">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N19">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q19">
-        <v>24067.13546060664</v>
+        <v>27505.66718320192</v>
       </c>
       <c r="R19">
-        <v>216604.2191454598</v>
+        <v>247551.0046488174</v>
       </c>
       <c r="S19">
-        <v>0.01223050560985895</v>
+        <v>0.02228796754461821</v>
       </c>
       <c r="T19">
-        <v>0.01223050560985896</v>
+        <v>0.02228796754461822</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H20">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I20">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J20">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N20">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q20">
-        <v>6457.510182002437</v>
+        <v>6774.98049332284</v>
       </c>
       <c r="R20">
-        <v>58117.59163802193</v>
+        <v>60974.82443990556</v>
       </c>
       <c r="S20">
-        <v>0.003281595960432235</v>
+        <v>0.005489797587706543</v>
       </c>
       <c r="T20">
-        <v>0.003281595960432235</v>
+        <v>0.005489797587706543</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H21">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I21">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J21">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N21">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q21">
-        <v>27778.26261876742</v>
+        <v>18466.63699819838</v>
       </c>
       <c r="R21">
-        <v>250004.3635689068</v>
+        <v>166199.7329837854</v>
       </c>
       <c r="S21">
-        <v>0.01411643680433279</v>
+        <v>0.01496360016765749</v>
       </c>
       <c r="T21">
-        <v>0.01411643680433279</v>
+        <v>0.01496360016765749</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H22">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I22">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J22">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N22">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O22">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P22">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q22">
-        <v>5.590351712847333</v>
+        <v>27.50205208667534</v>
       </c>
       <c r="R22">
-        <v>50.313165415626</v>
+        <v>247.5184687800781</v>
       </c>
       <c r="S22">
-        <v>2.840920893846189E-06</v>
+        <v>2.228503821541785E-05</v>
       </c>
       <c r="T22">
-        <v>2.84092089384619E-06</v>
+        <v>2.228503821541785E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H23">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I23">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J23">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q23">
-        <v>23.12897783297067</v>
+        <v>132.3304868846187</v>
       </c>
       <c r="R23">
-        <v>208.160800496736</v>
+        <v>1190.974381961568</v>
       </c>
       <c r="S23">
-        <v>1.175374998821405E-05</v>
+        <v>0.0001072279969507204</v>
       </c>
       <c r="T23">
-        <v>1.175374998821405E-05</v>
+        <v>0.0001072279969507205</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H24">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I24">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J24">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N24">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q24">
-        <v>61.03653241932</v>
+        <v>238.8435470296967</v>
       </c>
       <c r="R24">
-        <v>549.3287917738801</v>
+        <v>2149.59192326727</v>
       </c>
       <c r="S24">
-        <v>3.101771930368379E-05</v>
+        <v>0.0001935360152867117</v>
       </c>
       <c r="T24">
-        <v>3.10177193036838E-05</v>
+        <v>0.0001935360152867118</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H25">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I25">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J25">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N25">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q25">
-        <v>16.37685673964067</v>
+        <v>58.830071683208</v>
       </c>
       <c r="R25">
-        <v>147.391710656766</v>
+        <v>529.470645148872</v>
       </c>
       <c r="S25">
-        <v>8.322437813751471E-06</v>
+        <v>4.767027535051655E-05</v>
       </c>
       <c r="T25">
-        <v>8.322437813751472E-06</v>
+        <v>4.767027535051656E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H26">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I26">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J26">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N26">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q26">
-        <v>70.44830198666467</v>
+        <v>160.3537573905193</v>
       </c>
       <c r="R26">
-        <v>634.0347178799821</v>
+        <v>1443.183816514674</v>
       </c>
       <c r="S26">
-        <v>3.580061923294722E-05</v>
+        <v>0.0001299353808279969</v>
       </c>
       <c r="T26">
-        <v>3.580061923294722E-05</v>
+        <v>0.0001299353808279969</v>
       </c>
     </row>
   </sheetData>
